--- a/Capstone/U.S. Refugee Ceiling & Resettlement 1980-2020.xlsx
+++ b/Capstone/U.S. Refugee Ceiling & Resettlement 1980-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag03982\Documents\NSS_Data_Analytics\projects\U.S-First-Generation-Family-Students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag03982\Documents\NSS_Data_Analytics\projects\U.S-First-Generation-Family-Students\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E6B76-A124-47CA-B65D-F84ACD4E3390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0378BE9-5EB5-439B-B069-2DCBC483B07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1220" yWindow="1220" windowWidth="12000" windowHeight="6240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U.S. Refugee Ceiling &amp; Resettle" sheetId="1" r:id="rId1"/>
@@ -997,6 +997,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'U.S. Refugee Ceiling &amp; Resettle'!$A$14:$A$55</c:f>
@@ -3449,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="K46" sqref="F46:K46"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4781,9 +4795,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5004,27 +5021,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0BF530-67DB-4695-9E6D-134D48C367BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA3ECC6-0BB5-45DD-908E-4EFCB54A0B13}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ee7735e0-e7d3-4463-89c0-1c4b6dc8a999"/>
-    <ds:schemaRef ds:uri="fcfc9a3f-7933-4dce-bbb1-c2084155a778"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5049,9 +5054,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA3ECC6-0BB5-45DD-908E-4EFCB54A0B13}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0BF530-67DB-4695-9E6D-134D48C367BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ee7735e0-e7d3-4463-89c0-1c4b6dc8a999"/>
+    <ds:schemaRef ds:uri="fcfc9a3f-7933-4dce-bbb1-c2084155a778"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Capstone/U.S. Refugee Ceiling & Resettlement 1980-2020.xlsx
+++ b/Capstone/U.S. Refugee Ceiling & Resettlement 1980-2020.xlsx
@@ -5,20 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag03982\Documents\NSS_Data_Analytics\projects\U.S-First-Generation-Family-Students\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag03982\Documents\NSS_Data_Analytics\projects\U.S-First-Generation-Family\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0378BE9-5EB5-439B-B069-2DCBC483B07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934D8DA-F499-439C-8739-1807F7C0806C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1220" yWindow="1220" windowWidth="12000" windowHeight="6240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U.S. Refugee Ceiling &amp; Resettle" sheetId="1" r:id="rId1"/>
     <sheet name="Top 10" sheetId="2" r:id="rId2"/>
-    <sheet name="AVG" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AVG!$A$1:$B$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Top 10'!$A$1:$B$66</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Year</t>
   </si>
@@ -327,63 +325,6 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under 1 year                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 to 4 years                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 to 9 years                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 to 14 years                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 to 19 years                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 to 24 years                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 to 29 years                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 to 34 years                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 to 39 years                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 to 44 years                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 to 49 years                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 to 54 years                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 to 59 years                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 to 64 years                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 to 74 years           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 years and over                     </t>
-  </si>
-  <si>
-    <t>All Refugees</t>
-  </si>
-  <si>
-    <t>Above AVG.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -588,7 +529,6 @@
       <alignment horizontal="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -605,18 +545,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{79BD9340-A61A-4B5B-8CC0-12739BC3AACB}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{3ACFC31A-37C9-4C2C-A28B-E553C47FA860}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1543,7 +1472,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1557,13 +1486,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Top 10 Countries</a:t>
+              <a:t>Top 10 Countries(2004)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>(2004)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1580,7 +1504,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1618,7 +1542,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent5">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1669,14 +1595,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1776,7 +1701,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="601581728"/>
         <c:axId val="601586976"/>
@@ -1789,7 +1714,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1797,11 +1722,13 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1837,21 +1764,64 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="601581728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1861,13 +1831,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst>
-          <a:glow rad="63500">
-            <a:schemeClr val="accent1">
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2479,7 +2443,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2490,7 +2454,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2506,11 +2470,13 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2520,7 +2486,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2536,7 +2502,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2555,23 +2521,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2580,32 +2538,46 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2620,30 +2592,53 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2665,15 +2660,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2683,7 +2676,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2692,14 +2685,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2708,17 +2700,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2727,7 +2718,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2746,21 +2737,142 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2771,104 +2883,10 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2876,10 +2894,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2900,7 +2918,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2909,14 +2927,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2937,20 +2954,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2971,14 +2987,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3463,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3476,11 +3486,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" ht="67.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4018,18 +4028,18 @@
       <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
@@ -4037,11 +4047,11 @@
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4622,178 +4632,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82681B4A-037E-4318-BC9C-0169114228FF}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="20">
-        <v>4105</v>
-      </c>
-      <c r="E2" s="20">
-        <f>AVERAGE(B2:B8)</f>
-        <v>3281.5714285714284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="20">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="20">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="20">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="20">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="20">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="20">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="20">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B17" xr:uid="{81055863-4F18-451A-8747-056DD103B65F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
-      <sortCondition descending="1" ref="B1:B17"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:B16">
-    <cfRule type="aboveAverage" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4804,6 +4642,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010002E4FECDB5AF7649B8366A09611D80F8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="949dc4fd3a11035a88d2afcb2af68e63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee7735e0-e7d3-4463-89c0-1c4b6dc8a999" xmlns:ns3="fcfc9a3f-7933-4dce-bbb1-c2084155a778" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b75e75874ef0b67f30ea908de9ea9c9" ns2:_="" ns3:_="">
     <xsd:import namespace="ee7735e0-e7d3-4463-89c0-1c4b6dc8a999"/>
@@ -5020,12 +4864,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA3ECC6-0BB5-45DD-908E-4EFCB54A0B13}">
   <ds:schemaRefs>
@@ -5035,6 +4873,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0BF530-67DB-4695-9E6D-134D48C367BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ee7735e0-e7d3-4463-89c0-1c4b6dc8a999"/>
+    <ds:schemaRef ds:uri="fcfc9a3f-7933-4dce-bbb1-c2084155a778"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4134C0C-D1BA-48F0-BBEF-EEB89A321840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5051,21 +4906,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0BF530-67DB-4695-9E6D-134D48C367BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ee7735e0-e7d3-4463-89c0-1c4b6dc8a999"/>
-    <ds:schemaRef ds:uri="fcfc9a3f-7933-4dce-bbb1-c2084155a778"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>